--- a/500all/speech_level/speeches_CHRG-114hhrg93536.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93536.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. The committee will come to order. Pursuant to notice, we meet today to mark up three bipartisan measures and, without objection, all members may have 5 days to submit any statements for the record or extraneous materials on any of today's business. As all members were notified yesterday, we intend to consider our first two measures en bloc.    And so, without objection, the following items will be considered en bloc and are considered as read: H.R. 400, the Trafficking Prevention in Foreign Affairs Contracting Act; House Resolution 53, a resolution condemning the cowardly attacks on innocent men, women, and children in Northeast Nigeria; and Kelly amendment No. 14, in the nature of a substitute to House Resolution 53. And after recognizing myself and Mr. Engel, I will be pleased to recognize any Member seeking recognition to speak on these two measures.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman. And thank you for holding this markup and, as always, for working with us in a bipartisan manner. I strongly support the two measures in this en bloc, H.R. 400, Trafficking Prevention in Foreign Affairs Contracting Act, and H. Res. 53, a resolution condemning the attacks by Boko Haram in Northeastern Nigeria.    Mr. Chairman, I want to commend your leadership on human trafficking issues. You mentioned all of the people, our colleagues who have done this, Mr. Smith for years, and so many other people on this committee. As you noted, current law prohibits U.S. Government contractors from charging foreign workers unreasonable placement and recruitment fees, but as the GAO has pointed out, neither the State Department nor USAID has adequately defined what ``unreasonable'' means. We don't want to leave any ambiguity that could lead to debt bondage or any other form of human trafficking. The bill simply requires State Department and USAID to submit a report clarifying this definition.    Human trafficking is a modern slavery, a horrific crime and an assault on freedom and justice. As a leader in fighting this scourge, our Government needs to make sure that our procurement and contracting practices don't lead to abuse or exploitation of workers. The bill before us today will help ensure taxpayer dollars aren't inadvertently making this problem worse. I strongly support this legislation and urge all of my colleagues to do the same.    Mr. Chairman, I also support H. Res. 53, a resolution condemning Boko Haram and encouraging free, fair, and ontime elections in Nigeria. I want to commend our new colleague on the committee, Congresswoman Robin Kelly, for introducing this important measure and for her leadership on this issue. Nigeria is going through a very difficult period right now. The brutal terrorist group Boko Haram has continued its reign of terror ruthlessly killing hundreds of civilians in the northeast part of the country, and in a controversial move, Nigeria's Presidential election has been postponed.    Over the past 5 years, Nigeria's leaders have not dealt adequately with the challenge of Boko Haram. They must do better. And that is what this resolution says. It also applauds the efforts of other countries in the region, including Chad, Niger, and Cameroon, to cooperate in the offensive against Boko Haram.    With respect to Nigeria's elections, I am deeply concerned by the 6-week delay announced earlier this month by the elected commission. Many believe this action was politically motivated. Nigeria is Africa's largest democracy and economy. The continent cannot afford the illegitimate elections to undermine stability in that country. This resolution urges the Government of Nigeria to hold elections on March 28, and calls on all parties to refrain from violence. Credible elections in such an important country will help project stability across the continent.    So I urge my colleagues to as well support this important resolution.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chairman.    I want to extend my thanks to Chairman Royce, Ranking Member Engel, and the majority and minority staffs for their work in organizing today's markup.    The resolution that I have offered in a substitute amendment is intended to serve as a direct message to Boko Haram that their terror and extremism will not be ignored. Their ideology will not be tolerated, and their legacy of savagery will not endure in the annals of history. Like so many across the world, I am outraged by the brutality and senselessness of Boko Haram's crimes. As we work with the international community to reduce the threat of terrorism around the world, we are reminded that Boko Haram has killed over 5,000 people in Nigeria in 2014 and displaced over 1 million innocent people.    Boko Haram has abducted hundreds of civilians using women and children as slaves and subjecting them to sexual abuse, suicide bombers, and child soldiers. Boko Haram has threatened to disrupt the Nigerian elections and intimidate would-be voters. Victimizing innocent men, women, and children for perverse and ideological gain will never be tolerated or treated as just by the international community. With our vote today, this committee can affirm that we stand for the human rights, dignity, and security of the Nigerian people. We will not tolerate a world in which Boko Haram or any terrorist organization can slaughter innocent civilians; we respect the right of women to be educated without the threat of violence; and that we support free and fair elections that do not have the threat of suppression and intimidation lingering around them.    While they are not on this committee, I want to thank our colleagues Congresswomen Frederica Wilson and Corrine Brown for their leadership on this issue, and I again thank the chairman and ranking member for their work in marking up this resolution.    I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Thanks, Mr. Chairman, and thank you for drafting this important bill and bringing it up so quickly at the beginning of the Congress. I have consistently supported any measures and legislation that would hold North Korea accountable to its intolerable actions.</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman.    I want to thank you and Ranking Member Engel for swiftly scheduling the first markup of a new Congress to address critical issues in the world right now. I am happy to see us move forward on a number of bills that I am very proud to have cosponsored. I am particularly grateful to the chairman and the ranking member for their leadership on human trafficking with the Trafficking Prevention in Foreign Affairs Contracting Act. Put simply, human trafficking is slavery. It violates the founding principles of the United States of life, liberty, and the pursuit of happiness, and humanity's very basic principle of respect. The United States must continue to lead efforts in combating human trafficking, and I am very pleased that we are marking up legislation to improve transparency and enforcement regarding the oversight of recruitment fees paid by foreign workers.    Finally, I was proud to cosponsor the resolution offered by my friend and college Congresswoman Robin Kelly condemning the violence and terrorism perpetrated by Boko Haram, abducting innocent students and forcing children into marriage or slavery is unconscionable. And no child in any part of the world should live in constant fear of kidnapping or death. We must send a strong message to Boko Haram that these heinous acts and their other terrorist activities are unacceptable. There is no question that the United States must do everything in its power to work with our partners to stop Boko Haram.    And I, too, want to acknowledge the advocacy and passionate work of our colleague, Congresswoman Frederica Wilson.    But also in our partnership with Nigeria, we must also enforce our expectations that the Nigerian Government is honest, fair, and treats all of its citizens with dignity.    Last year, Nigeria enacted a law which added additional criminal penalties against lesbian, gay, bisexual and transgender individuals. Although titled ``The Same-Sex Marriage Prohibition bill,'' the law goes well beyond prohibiting marriage equality to actively discriminate against LGBT individuals and their allies in meaningful ways. Since enactment of the law, we have received reports of escalated violence, police and government oppression, and censorship. And while we commit to the full might of the United States to fighting Boko Haram, we cannot ignore egregious human rights violations at the same time.    Again, I commend the chairman and the ranking member for moving these important pieces of legislation, and I look forward to their passage, and I yield back.</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Chairman, thank you very much for bringing these bills before the committee and for your leadership on the trafficking bill. I think that is a very timely bill. The GAO report adds exclamation points to what this will seek to accomplish, the one that was done just a few months ago. So thank you for that leadership.    You know, on the whole idea of exploiting workers and falsifying recruitment procedures as well as recruitment fees, this has been a problem that has plagued our own procurement process. I held a series of hearings, Mr. Chairman, and two of them were joint hearings; one with Duncan Hunter when he was the chairman of the Armed Services Committee and the other with John McHugh when he was a subcommittee chairman. And we were able to probe and discover very, very egregious practices on the part of our own procurement, whereby contractors as well as recruitment people in Jordan and elsewhere were inviting people to come to work for us, only to be told once they got here that they couldn't leave. They were in substandard housing. Their passports were taken away from them, and then they were living in despicable circumstances and getting pay that was nowhere near what they were earning--or should have earned--and what they were promised.    It fits the definition of a labor trafficking offense. We have pressed repeatedly that in all procurement, across the board in the United States Government, that we set the standard, not be part of the problem but be part of the solution when it comes to purchasing and when it comes to employing people, particularly overseas. It has not been a good record. And, again, this I think helps us get further information, further clarification about how we can do much better.    I would also point out that, in 2003, when we did the reauthorization of the Trafficking Victims Protection Act, legislation that I was the author of, the act had specific language about contracting; and if a contractor is complicit in human trafficking, that not only are we able to take that contract away from them in a very expeditious way, but we will hold all those who are complicit in that trafficking labor or sex trafficking to account criminally so that we can bring charges against them. Again, you now bring further push, amplification, light, and scrutiny to what has not been a very good or well-executed policy, and I thank you for it.</t>
   </si>
   <si>
@@ -136,9 +118,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. I want to thank the chairman and the ranking member for scheduling the markup of H.R. 400. We should obviously expect and demand transparency and accountability of contractors employing foreign workers. And when we discover practices that exacerbate human trafficking, we should demand not only detailed plans to correct the violations, but also penalties should be imposed.    I also want to thank the chairman for scheduling a markup of House Resolution 53. The aggression on the part of Boko Haram has been unconscionable and has been a breach of the principles of political and religious freedom that this country is built on. The ability to freely practice religion and participate in the political system has brought us prosperity and would bring prosperity to Nigeria as well. In this spirit, we should encourage Nigeria to not submit to terrorism and fear but instead move forward with their elections.    We stand with the Nigerian Government.    They have our support, and we thank the African Union for all of their efforts to combat this problem.    I yield back my time.</t>
   </si>
   <si>
@@ -148,9 +127,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Marter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Marter. H.R. 757, a bill, to improve the enforcement of sanctions against the Government of North Korea, and for other purposes.</t>
   </si>
   <si>
@@ -169,9 +145,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you.    First of all, I would like to thank both you and the ranking member for the leadership you have provided on this, and on this and a lot of issues that we have been facing. This is a really contentious time in our history, and we are lucky to have both of you and giving this committee and all of the rest of us the guidance and leadership we need.    I would just like to add on this particular bill, where we are focusing on North Korea, I would like to make sure that we go on the record--or at least I am on the record--as pointing out that many of the things that we are blaming North Korea for, which they deserve blame for, can be traced back to the influences of Beijing on their policies. The Communist Chinese, I am of certainty, are helping them in their efforts when it comes to nuclear weapons development, for example, and cyberattacks. I do not believe that all of these activities, which are criminal activities against the West and trying to put us in jeopardy and also especially aimed at putting Japan, we have to understand that much of what is going on in North Korea is aimed at sort of a--giving an ominous threat to Japan. And the Japanese are fully aware that this isn't just coming from North Korea. It is Beijing giving a message to Japan through their puppet state in North Korea. So I, just for the record, I want to make sure that we understand this is a chess game going on here, and the and the main player on the other side is Beijing. So thank you very much to both of you, and I, of course, urge your support for this resolution.</t>
   </si>
   <si>
@@ -181,9 +154,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman, and I do want to thank you and Mr. Engel for your leadership.    This is a terribly important piece of legislation and maybe more critical now than ever. And adding the cyber piece, I echo what my friend Mr. Rohrabacher just said. I think that is critical. It was only a few years ago that the entire banking system of South Korea actually was shut down in a cyberattack almost certainly from the North. So reporting on that is very important. I want to thank you also for--I know we are supposed to speak to the underlying bill, but I have got to run back to another hearing where I am a ranking member, but two amendments that I authored, and I thank you and Mr. Engel for accepting them, one was in the core bill from last year, and this is, expanding reporting requirements, including asking the State Department to tell us, what are you telling China? What are you asking China to do with respect to the recommendations of the Commission of Inquiry on Human Rights in Korea? And I think that is actually very important. That China relationship is changing. It is evolving. It can be a critical piece of leverage we otherwise don't have. And so while it looks like a simple reporting requirement, actually, I am hopeful and I know that you and Mr. Engel are as well, Mr. Chairman, that we can use this as a point of leverage.    And then, finally, thank you for accepting an amendment in this markup on family reunification. I can tell you in my district I have got constituents, Korean constituents, who have not seen their families since the end of the--well, since the secession of hostilities in the Korea conflict. To go 70 years without seeing a loved one is heartbreaking, and they probably will die before they get to see their relatives. And so family reunification, a very major issue, and we know that South Korean President Park Geun-hye has sought to improve in that regard in her peace and reunification initiative. And I think we should be supportive of that. And I thank you both for including those provisions and for your leadership in this matter.</t>
   </si>
   <si>
@@ -193,9 +163,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    I appreciate the chair and the ranking member supporting the amendment that I have offered. I would like to speak briefly about the amendment and underlying bill in the next few minutes. The underlying bill, when we think of Iran, we always need to think of North Korea, and when we think of North Korea, we need to think of Iran. They are working together. One has nuclear capability; the other has weapons, and they are, in my opinion, wanting to trade off each other's facilities or knowledge so that they could both be worse than they are individually.    Iran calls North Korea a member of their Axis of Resistance. They are really, I think, an axis of world terror. North Korea, their new President Kim Jong-un, I don't know if the chairman remembers this, but he made a statement--I think it was last year--that he is excited about getting nuclear weapons and wants to send his first intercontinental ballistic missile to Austin, Texas. I don't know why he picked Austin, but I am offended by that. I take it real personal that he would want to----</t>
   </si>
   <si>
@@ -217,9 +184,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Like the Judge, I too am deeply offended that North Korea has called out my constituents in the State of Hawaii, placing us in their crosshairs. Understanding that with what is happening in the region this is actually something that is top of mind for people, something that is very real. So as you look at the growing threats across the world, both conventional and unconventional, I appreciate your leadership and the ranking member's leadership, and continuing to hold the line and maintain this pressure on North Korea as they openly continue to develop their ballistic missile capabilities, and their nuclear capabilities, understanding that that consistency and that increased pressure is necessary if we want this to have a very real effect. Again, my constituents in Hawaii and others in the Asia-Pacific Region are acutely aware of what North Korea is doing on the one hand, and what we are doing to stop them. Thank you very much.</t>
   </si>
   <si>
@@ -241,9 +205,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Okay, I had a different--yeah, that is the one. I just spoke on the floor. I apologize. I just raced over here from speaking on the bill that we are taking up on the floor today. I appreciate, Mr. Chairman, I would like to express my support for H.R. 757, the North Korea Sanctions Enforcement Act of 2015.    Kim Jong-un's regime represents an imminent threat to the global nonproliferation effort, to the global economy, and the global financial system. North Korea has made its intentions clear that it will not halt its nuclear weapons and missile programs. But its trajectory will not last long if the U.S. denies access to its offshore accounts and funding.    As you know, H.R. 757 puts banks everywhere on notice that they must choose between doing business with Kim Jong-un and making use of the U.S. financial system, and that U.S. must maintain a consistent position that makes it crystal clear to the regime in Pyongyang that we will not concede to its unreasonable demands. The time for willful blindness, for looking the other way at North Korea's proliferation, money laundering, and its kleptocracy is over. I look forward to working with my colleagues to ensure this happens, and hope that the administration pursues a path that will increase security for South Korea and the international community.    And, again, I apologize for getting here at the last minute. But I had to be in two places at once. So I yield back.</t>
   </si>
   <si>
@@ -254,9 +215,6 @@
   </si>
   <si>
     <t>412576</t>
-  </si>
-  <si>
-    <t>Joaquin Castro</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Castro. Sure. Thank you, Chairman, and thank you and the ranking member for all of your work on this issue. Yesterday, Director of National Intelligence James Clapper stated that North Korea's offensive cyber operations, growing stockpile of ballistic missiles, and nuclear weapons pose ``A serious threat to the United States and to the security environment in East Asia.''    My amendment echoes Director Clapper's assessment by adding a sense of Congress that North Korea's nuclear ballistic missiles program are of mutual concern to the United States, Japan, and South Korea, and that trilateral cooperation is essential to the security of each Nation and the stability of Asia-Pacific Region. Last December, the United States, Japan, and South Korea finalized a trilateral military intelligence-sharing agreement concerning threats posed by North Korea. The United States has had bilateral agreements with Japan and South Korea, but this is a new trilateral agreement that creates a more effective bulwark against North Korea and strengthens our collective response capabilities the event of future aggression from North Korea.    The United States, Japan, and South Korea share the values of democratic governance and the rule of law and respect for human rights. It makes sense that we share intelligence related to North Korea's military threats.    I yield back, Mr. Chairman.</t>
@@ -661,11 +619,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -687,11 +643,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -711,13 +665,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -739,11 +691,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -763,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -791,11 +739,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -815,13 +761,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -843,11 +787,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -867,13 +809,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -895,11 +835,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -919,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -947,11 +883,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -971,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -999,11 +931,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1023,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1051,11 +979,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1075,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1103,11 +1027,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1127,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1155,11 +1075,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1181,11 +1099,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1205,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1233,11 +1147,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1257,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1285,11 +1195,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1309,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" t="s">
-        <v>55</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1337,11 +1243,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1361,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" t="s">
-        <v>59</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1389,11 +1291,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1413,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" t="s">
-        <v>59</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1441,11 +1339,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1465,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1493,11 +1387,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1517,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" t="s">
-        <v>67</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1545,11 +1435,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1569,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1597,11 +1483,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1621,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1649,11 +1531,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1673,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" t="s">
-        <v>75</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1701,11 +1579,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1727,11 +1603,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1751,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" t="s">
-        <v>80</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1779,11 +1651,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93536.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93536.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. The committee will come to order. Pursuant to notice, we meet today to mark up three bipartisan measures and, without objection, all members may have 5 days to submit any statements for the record or extraneous materials on any of today's business. As all members were notified yesterday, we intend to consider our first two measures en bloc.    And so, without objection, the following items will be considered en bloc and are considered as read: H.R. 400, the Trafficking Prevention in Foreign Affairs Contracting Act; House Resolution 53, a resolution condemning the cowardly attacks on innocent men, women, and children in Northeast Nigeria; and Kelly amendment No. 14, in the nature of a substitute to House Resolution 53. And after recognizing myself and Mr. Engel, I will be pleased to recognize any Member seeking recognition to speak on these two measures.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman. And thank you for holding this markup and, as always, for working with us in a bipartisan manner. I strongly support the two measures in this en bloc, H.R. 400, Trafficking Prevention in Foreign Affairs Contracting Act, and H. Res. 53, a resolution condemning the attacks by Boko Haram in Northeastern Nigeria.    Mr. Chairman, I want to commend your leadership on human trafficking issues. You mentioned all of the people, our colleagues who have done this, Mr. Smith for years, and so many other people on this committee. As you noted, current law prohibits U.S. Government contractors from charging foreign workers unreasonable placement and recruitment fees, but as the GAO has pointed out, neither the State Department nor USAID has adequately defined what ``unreasonable'' means. We don't want to leave any ambiguity that could lead to debt bondage or any other form of human trafficking. The bill simply requires State Department and USAID to submit a report clarifying this definition.    Human trafficking is a modern slavery, a horrific crime and an assault on freedom and justice. As a leader in fighting this scourge, our Government needs to make sure that our procurement and contracting practices don't lead to abuse or exploitation of workers. The bill before us today will help ensure taxpayer dollars aren't inadvertently making this problem worse. I strongly support this legislation and urge all of my colleagues to do the same.    Mr. Chairman, I also support H. Res. 53, a resolution condemning Boko Haram and encouraging free, fair, and ontime elections in Nigeria. I want to commend our new colleague on the committee, Congresswoman Robin Kelly, for introducing this important measure and for her leadership on this issue. Nigeria is going through a very difficult period right now. The brutal terrorist group Boko Haram has continued its reign of terror ruthlessly killing hundreds of civilians in the northeast part of the country, and in a controversial move, Nigeria's Presidential election has been postponed.    Over the past 5 years, Nigeria's leaders have not dealt adequately with the challenge of Boko Haram. They must do better. And that is what this resolution says. It also applauds the efforts of other countries in the region, including Chad, Niger, and Cameroon, to cooperate in the offensive against Boko Haram.    With respect to Nigeria's elections, I am deeply concerned by the 6-week delay announced earlier this month by the elected commission. Many believe this action was politically motivated. Nigeria is Africa's largest democracy and economy. The continent cannot afford the illegitimate elections to undermine stability in that country. This resolution urges the Government of Nigeria to hold elections on March 28, and calls on all parties to refrain from violence. Credible elections in such an important country will help project stability across the continent.    So I urge my colleagues to as well support this important resolution.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412595</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chairman.    I want to extend my thanks to Chairman Royce, Ranking Member Engel, and the majority and minority staffs for their work in organizing today's markup.    The resolution that I have offered in a substitute amendment is intended to serve as a direct message to Boko Haram that their terror and extremism will not be ignored. Their ideology will not be tolerated, and their legacy of savagery will not endure in the annals of history. Like so many across the world, I am outraged by the brutality and senselessness of Boko Haram's crimes. As we work with the international community to reduce the threat of terrorism around the world, we are reminded that Boko Haram has killed over 5,000 people in Nigeria in 2014 and displaced over 1 million innocent people.    Boko Haram has abducted hundreds of civilians using women and children as slaves and subjecting them to sexual abuse, suicide bombers, and child soldiers. Boko Haram has threatened to disrupt the Nigerian elections and intimidate would-be voters. Victimizing innocent men, women, and children for perverse and ideological gain will never be tolerated or treated as just by the international community. With our vote today, this committee can affirm that we stand for the human rights, dignity, and security of the Nigerian people. We will not tolerate a world in which Boko Haram or any terrorist organization can slaughter innocent civilians; we respect the right of women to be educated without the threat of violence; and that we support free and fair elections that do not have the threat of suppression and intimidation lingering around them.    While they are not on this committee, I want to thank our colleagues Congresswomen Frederica Wilson and Corrine Brown for their leadership on this issue, and I again thank the chairman and ranking member for their work in marking up this resolution.    I yield back.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Thanks, Mr. Chairman, and thank you for drafting this important bill and bringing it up so quickly at the beginning of the Congress. I have consistently supported any measures and legislation that would hold North Korea accountable to its intolerable actions.</t>
   </si>
   <si>
@@ -94,6 +121,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman.    I want to thank you and Ranking Member Engel for swiftly scheduling the first markup of a new Congress to address critical issues in the world right now. I am happy to see us move forward on a number of bills that I am very proud to have cosponsored. I am particularly grateful to the chairman and the ranking member for their leadership on human trafficking with the Trafficking Prevention in Foreign Affairs Contracting Act. Put simply, human trafficking is slavery. It violates the founding principles of the United States of life, liberty, and the pursuit of happiness, and humanity's very basic principle of respect. The United States must continue to lead efforts in combating human trafficking, and I am very pleased that we are marking up legislation to improve transparency and enforcement regarding the oversight of recruitment fees paid by foreign workers.    Finally, I was proud to cosponsor the resolution offered by my friend and college Congresswoman Robin Kelly condemning the violence and terrorism perpetrated by Boko Haram, abducting innocent students and forcing children into marriage or slavery is unconscionable. And no child in any part of the world should live in constant fear of kidnapping or death. We must send a strong message to Boko Haram that these heinous acts and their other terrorist activities are unacceptable. There is no question that the United States must do everything in its power to work with our partners to stop Boko Haram.    And I, too, want to acknowledge the advocacy and passionate work of our colleague, Congresswoman Frederica Wilson.    But also in our partnership with Nigeria, we must also enforce our expectations that the Nigerian Government is honest, fair, and treats all of its citizens with dignity.    Last year, Nigeria enacted a law which added additional criminal penalties against lesbian, gay, bisexual and transgender individuals. Although titled ``The Same-Sex Marriage Prohibition bill,'' the law goes well beyond prohibiting marriage equality to actively discriminate against LGBT individuals and their allies in meaningful ways. Since enactment of the law, we have received reports of escalated violence, police and government oppression, and censorship. And while we commit to the full might of the United States to fighting Boko Haram, we cannot ignore egregious human rights violations at the same time.    Again, I commend the chairman and the ranking member for moving these important pieces of legislation, and I look forward to their passage, and I yield back.</t>
   </si>
   <si>
@@ -103,6 +136,12 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Chairman, thank you very much for bringing these bills before the committee and for your leadership on the trafficking bill. I think that is a very timely bill. The GAO report adds exclamation points to what this will seek to accomplish, the one that was done just a few months ago. So thank you for that leadership.    You know, on the whole idea of exploiting workers and falsifying recruitment procedures as well as recruitment fees, this has been a problem that has plagued our own procurement process. I held a series of hearings, Mr. Chairman, and two of them were joint hearings; one with Duncan Hunter when he was the chairman of the Armed Services Committee and the other with John McHugh when he was a subcommittee chairman. And we were able to probe and discover very, very egregious practices on the part of our own procurement, whereby contractors as well as recruitment people in Jordan and elsewhere were inviting people to come to work for us, only to be told once they got here that they couldn't leave. They were in substandard housing. Their passports were taken away from them, and then they were living in despicable circumstances and getting pay that was nowhere near what they were earning--or should have earned--and what they were promised.    It fits the definition of a labor trafficking offense. We have pressed repeatedly that in all procurement, across the board in the United States Government, that we set the standard, not be part of the problem but be part of the solution when it comes to purchasing and when it comes to employing people, particularly overseas. It has not been a good record. And, again, this I think helps us get further information, further clarification about how we can do much better.    I would also point out that, in 2003, when we did the reauthorization of the Trafficking Victims Protection Act, legislation that I was the author of, the act had specific language about contracting; and if a contractor is complicit in human trafficking, that not only are we able to take that contract away from them in a very expeditious way, but we will hold all those who are complicit in that trafficking labor or sex trafficking to account criminally so that we can bring charges against them. Again, you now bring further push, amplification, light, and scrutiny to what has not been a very good or well-executed policy, and I thank you for it.</t>
   </si>
   <si>
@@ -118,6 +157,12 @@
     <t>412636</t>
   </si>
   <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Trott. I want to thank the chairman and the ranking member for scheduling the markup of H.R. 400. We should obviously expect and demand transparency and accountability of contractors employing foreign workers. And when we discover practices that exacerbate human trafficking, we should demand not only detailed plans to correct the violations, but also penalties should be imposed.    I also want to thank the chairman for scheduling a markup of House Resolution 53. The aggression on the part of Boko Haram has been unconscionable and has been a breach of the principles of political and religious freedom that this country is built on. The ability to freely practice religion and participate in the political system has brought us prosperity and would bring prosperity to Nigeria as well. In this spirit, we should encourage Nigeria to not submit to terrorism and fear but instead move forward with their elections.    We stand with the Nigerian Government.    They have our support, and we thank the African Union for all of their efforts to combat this problem.    I yield back my time.</t>
   </si>
   <si>
@@ -127,6 +172,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Marter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Marter. H.R. 757, a bill, to improve the enforcement of sanctions against the Government of North Korea, and for other purposes.</t>
   </si>
   <si>
@@ -145,6 +193,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you.    First of all, I would like to thank both you and the ranking member for the leadership you have provided on this, and on this and a lot of issues that we have been facing. This is a really contentious time in our history, and we are lucky to have both of you and giving this committee and all of the rest of us the guidance and leadership we need.    I would just like to add on this particular bill, where we are focusing on North Korea, I would like to make sure that we go on the record--or at least I am on the record--as pointing out that many of the things that we are blaming North Korea for, which they deserve blame for, can be traced back to the influences of Beijing on their policies. The Communist Chinese, I am of certainty, are helping them in their efforts when it comes to nuclear weapons development, for example, and cyberattacks. I do not believe that all of these activities, which are criminal activities against the West and trying to put us in jeopardy and also especially aimed at putting Japan, we have to understand that much of what is going on in North Korea is aimed at sort of a--giving an ominous threat to Japan. And the Japanese are fully aware that this isn't just coming from North Korea. It is Beijing giving a message to Japan through their puppet state in North Korea. So I, just for the record, I want to make sure that we understand this is a chess game going on here, and the and the main player on the other side is Beijing. So thank you very much to both of you, and I, of course, urge your support for this resolution.</t>
   </si>
   <si>
@@ -154,6 +208,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman, and I do want to thank you and Mr. Engel for your leadership.    This is a terribly important piece of legislation and maybe more critical now than ever. And adding the cyber piece, I echo what my friend Mr. Rohrabacher just said. I think that is critical. It was only a few years ago that the entire banking system of South Korea actually was shut down in a cyberattack almost certainly from the North. So reporting on that is very important. I want to thank you also for--I know we are supposed to speak to the underlying bill, but I have got to run back to another hearing where I am a ranking member, but two amendments that I authored, and I thank you and Mr. Engel for accepting them, one was in the core bill from last year, and this is, expanding reporting requirements, including asking the State Department to tell us, what are you telling China? What are you asking China to do with respect to the recommendations of the Commission of Inquiry on Human Rights in Korea? And I think that is actually very important. That China relationship is changing. It is evolving. It can be a critical piece of leverage we otherwise don't have. And so while it looks like a simple reporting requirement, actually, I am hopeful and I know that you and Mr. Engel are as well, Mr. Chairman, that we can use this as a point of leverage.    And then, finally, thank you for accepting an amendment in this markup on family reunification. I can tell you in my district I have got constituents, Korean constituents, who have not seen their families since the end of the--well, since the secession of hostilities in the Korea conflict. To go 70 years without seeing a loved one is heartbreaking, and they probably will die before they get to see their relatives. And so family reunification, a very major issue, and we know that South Korean President Park Geun-hye has sought to improve in that regard in her peace and reunification initiative. And I think we should be supportive of that. And I thank you both for including those provisions and for your leadership in this matter.</t>
   </si>
   <si>
@@ -163,6 +223,12 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    I appreciate the chair and the ranking member supporting the amendment that I have offered. I would like to speak briefly about the amendment and underlying bill in the next few minutes. The underlying bill, when we think of Iran, we always need to think of North Korea, and when we think of North Korea, we need to think of Iran. They are working together. One has nuclear capability; the other has weapons, and they are, in my opinion, wanting to trade off each other's facilities or knowledge so that they could both be worse than they are individually.    Iran calls North Korea a member of their Axis of Resistance. They are really, I think, an axis of world terror. North Korea, their new President Kim Jong-un, I don't know if the chairman remembers this, but he made a statement--I think it was last year--that he is excited about getting nuclear weapons and wants to send his first intercontinental ballistic missile to Austin, Texas. I don't know why he picked Austin, but I am offended by that. I take it real personal that he would want to----</t>
   </si>
   <si>
@@ -184,6 +250,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Like the Judge, I too am deeply offended that North Korea has called out my constituents in the State of Hawaii, placing us in their crosshairs. Understanding that with what is happening in the region this is actually something that is top of mind for people, something that is very real. So as you look at the growing threats across the world, both conventional and unconventional, I appreciate your leadership and the ranking member's leadership, and continuing to hold the line and maintain this pressure on North Korea as they openly continue to develop their ballistic missile capabilities, and their nuclear capabilities, understanding that that consistency and that increased pressure is necessary if we want this to have a very real effect. Again, my constituents in Hawaii and others in the Asia-Pacific Region are acutely aware of what North Korea is doing on the one hand, and what we are doing to stop them. Thank you very much.</t>
   </si>
   <si>
@@ -205,6 +277,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. Okay, I had a different--yeah, that is the one. I just spoke on the floor. I apologize. I just raced over here from speaking on the bill that we are taking up on the floor today. I appreciate, Mr. Chairman, I would like to express my support for H.R. 757, the North Korea Sanctions Enforcement Act of 2015.    Kim Jong-un's regime represents an imminent threat to the global nonproliferation effort, to the global economy, and the global financial system. North Korea has made its intentions clear that it will not halt its nuclear weapons and missile programs. But its trajectory will not last long if the U.S. denies access to its offshore accounts and funding.    As you know, H.R. 757 puts banks everywhere on notice that they must choose between doing business with Kim Jong-un and making use of the U.S. financial system, and that U.S. must maintain a consistent position that makes it crystal clear to the regime in Pyongyang that we will not concede to its unreasonable demands. The time for willful blindness, for looking the other way at North Korea's proliferation, money laundering, and its kleptocracy is over. I look forward to working with my colleagues to ensure this happens, and hope that the administration pursues a path that will increase security for South Korea and the international community.    And, again, I apologize for getting here at the last minute. But I had to be in two places at once. So I yield back.</t>
   </si>
   <si>
@@ -215,6 +293,12 @@
   </si>
   <si>
     <t>412576</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Castro. Sure. Thank you, Chairman, and thank you and the ranking member for all of your work on this issue. Yesterday, Director of National Intelligence James Clapper stated that North Korea's offensive cyber operations, growing stockpile of ballistic missiles, and nuclear weapons pose ``A serious threat to the United States and to the security environment in East Asia.''    My amendment echoes Director Clapper's assessment by adding a sense of Congress that North Korea's nuclear ballistic missiles program are of mutual concern to the United States, Japan, and South Korea, and that trilateral cooperation is essential to the security of each Nation and the stability of Asia-Pacific Region. Last December, the United States, Japan, and South Korea finalized a trilateral military intelligence-sharing agreement concerning threats posed by North Korea. The United States has had bilateral agreements with Japan and South Korea, but this is a new trilateral agreement that creates a more effective bulwark against North Korea and strengthens our collective response capabilities the event of future aggression from North Korea.    The United States, Japan, and South Korea share the values of democratic governance and the rule of law and respect for human rights. It makes sense that we share intelligence related to North Korea's military threats.    I yield back, Mr. Chairman.</t>
@@ -569,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +661,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,1061 +683,1282 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
       <c r="H18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
       <c r="H25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
       <c r="H27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
       <c r="H29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
       <c r="H31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
       <c r="H33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
       <c r="H35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
       <c r="H37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
       <c r="H39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
       <c r="H41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
       <c r="H44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93536.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93536.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Engel</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>412595</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Kelly</t>
@@ -653,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +673,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,1279 +698,1412 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
